--- a/Benchmarking/Statistical tests/statistical tests.xlsx
+++ b/Benchmarking/Statistical tests/statistical tests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db2bb2049c3ffece/Documents/GitHub/HiVaGe/Benchmarking/Scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniwroc-my.sharepoint.com/personal/341450_uwr_edu_pl/Documents/Carrier/Projects/Bioinformatics/HiVaGe/Benchmarking/Statistical tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="286" documentId="8_{74F4CDB3-ED79-467F-91B7-CAC58DB128B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AF839F8-6C43-48EB-987C-94CF89E7168F}"/>
+  <xr:revisionPtr revIDLastSave="293" documentId="8_{74F4CDB3-ED79-467F-91B7-CAC58DB128B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3273E741-FE2A-427A-A20E-0025AC0809A5}"/>
   <bookViews>
-    <workbookView xWindow="528" yWindow="1224" windowWidth="16404" windowHeight="11016" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="1464" windowWidth="18036" windowHeight="11016" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3 (3)" sheetId="12" r:id="rId1"/>
@@ -4059,7 +4059,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31 H16 H8:H13 H2:H4 H6 H33:H40">
+  <conditionalFormatting sqref="H16 H31 H8:H13 H2:H4 H6 H33:H40">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -4071,7 +4071,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31 I16 I8:I13 I2:I4 I6 I33:I40">
+  <conditionalFormatting sqref="I16 I31 I8:I13 I2:I4 I6 I33:I40">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -4140,7 +4140,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7116,7 +7116,7 @@
       <c r="D41" s="11"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4 B17 B1 B7 B9:B13 B29:B38">
+  <conditionalFormatting sqref="B17 B4 B1 B7 B9:B13 B29:B38">
     <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
@@ -7140,7 +7140,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1 D11 D4 D7 D9 D34:D38 D20:D21 D13:D15 D17:D18 D30:D32">
+  <conditionalFormatting sqref="D11 D1 D4 D7 D9 D34:D38 D20:D21 D13:D15 D17:D18 D30:D32">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -7176,7 +7176,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1 J20 J4 J7 J9 J11:J15 J17 J29:J38">
+  <conditionalFormatting sqref="J20 J1 J4 J7 J9 J11:J15 J17 J29:J38">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -9884,7 +9884,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31 H16 H8:H13 H2:H4 H6 H33:H40">
+  <conditionalFormatting sqref="H16 H31 H8:H13 H2:H4 H6 H33:H40">
     <cfRule type="colorScale" priority="286">
       <colorScale>
         <cfvo type="min"/>
@@ -9920,7 +9920,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31 I16 I8:I13 I2:I4 I6 I33:I40">
+  <conditionalFormatting sqref="I16 I31 I8:I13 I2:I4 I6 I33:I40">
     <cfRule type="colorScale" priority="292">
       <colorScale>
         <cfvo type="min"/>
@@ -14515,13 +14515,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13727E65-8E8F-481C-B1FB-E382E967F42E}">
   <dimension ref="A1:AG23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26:R27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AX18" sqref="AX18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="25" width="0" hidden="1" customWidth="1"/>
+    <col min="27" max="33" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
@@ -16200,6 +16203,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B22 B20 B18 B2:B16">
+    <cfRule type="colorScale" priority="425">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K2:K9 K11:K15 K17:K23">
     <cfRule type="colorScale" priority="391">
       <colorScale>
@@ -16308,18 +16323,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20 B22 B18 B2:B16">
-    <cfRule type="colorScale" priority="425">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
